--- a/results/I3_N5_M3_T45_C150_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.1148195921261</v>
+        <v>28.64645279649577</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2350001335144043</v>
+        <v>0.1579999923706055</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.33445374292426</v>
+        <v>28.64645279649577</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001692160902841224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.481383845961285e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.7805002514536</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999911050027132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999911052951771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -678,10 +678,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9999911050028798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999911050598346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41.21168903071567</v>
+        <v>31.60181147455</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29.9998665750382</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34.04733281399948</v>
+        <v>40.27973517692068</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>128.4419999999994</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>147.3549499745351</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>150.0889499745354</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>67.2420000000005</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>99.41294997453551</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>147.3549499745351</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>150</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>128.4420000000007</v>
+        <v>110.6</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.002514536495002e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1280,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,17 +1305,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
